--- a/biology/Histoire de la zoologie et de la botanique/Gerrit_Smith_Miller,_Jr/Gerrit_Smith_Miller,_Jr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gerrit_Smith_Miller,_Jr/Gerrit_Smith_Miller,_Jr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerrit Smith Miller, Jr. est un zoologiste américain, né le 6 décembre 1869 à Peterboro (État de New York) et mort le 24 février 1956 à Washington. Il est l'un des plus importants mammalogistes américains du XXe siècle.
 Il grandit à New York mais son grand-oncle, ornithologue amateur, l’initié à l’histoire naturelle. Après ses études à Harvard, il entre en 1894 au service du ministère de l’Agriculture américain et travaille sous les ordres de Clinton Hart Merriam (1855-1942) mais les deux hommes ne s'entendant pas et Miller quitte bientôt ce service.
@@ -519,7 +531,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Directions for preparing study specimens of small mammals (1894)
 Results of the Study of North American Land Mammals to che Close of the Year 1900 (1901)
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Keir B. Sterling (1997). Article Gerrit Smith Miller, Jr. dans Biographical Dictionary of American and Canadian Naturalists and Environmentalists. Greenwood Press.
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND CiNii Pays-Bas Pologne NUKAT Vatican Australie Portugal WorldCat 
